--- a/komazawa/6/ict/ict6.xlsx
+++ b/komazawa/6/ict/ict6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reput\Desktop\Projects\sites\lecture-files\komazawa\6\ict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reput\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D9793-3FA1-4D07-B981-088E8E264763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8390AB1-FE17-4A70-A28F-0D477620D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3410" yWindow="4490" windowWidth="28800" windowHeight="15370" xr2:uid="{6099AFA9-BD01-42BF-B139-43990B9A3D87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6099AFA9-BD01-42BF-B139-43990B9A3D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
   <si>
     <t>50%</t>
     <phoneticPr fontId="1"/>
@@ -54,10 +55,6 @@
   </si>
   <si>
     <t>2.35</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.33</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -387,10 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月間の観光客数が 4000 人以上のセルを、
-条件付き書式で強調表示してください。</t>
-  </si>
-  <si>
     <t>地域</t>
   </si>
   <si>
@@ -572,12 +565,6 @@
   </si>
   <si>
     <t>12 月</t>
-  </si>
-  <si>
-    <t>問題は Sheet 6 まで続く。</t>
-  </si>
-  <si>
-    <t>問題は Sheet 6 まで続く</t>
   </si>
   <si>
     <t>都道府県</t>
@@ -600,6 +587,23 @@
   </si>
   <si>
     <t>1月</t>
+  </si>
+  <si>
+    <t>問題は Sheet 7 まで続く。</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>問題は Sheet 7 まで続く</t>
+  </si>
+  <si>
+    <t>月間の観光客数が 4000 人以上のセルを、
+条件付き書式で強調表示してください。
+☆この問題は例年正答率が低いです。</t>
+  </si>
+  <si>
+    <t>このシートの名前を「ICT基礎」に変更してください（カギかっこ「」は除く）</t>
   </si>
 </sst>
 </file>
@@ -1545,45 +1549,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8">
         <v>50</v>
@@ -1618,7 +1622,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8">
         <v>33</v>
@@ -1653,7 +1657,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8">
         <v>35</v>
@@ -1688,7 +1692,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8">
         <v>67</v>
@@ -1723,7 +1727,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8">
         <v>22</v>
@@ -1758,7 +1762,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>28</v>
@@ -1793,7 +1797,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="8">
         <v>77</v>
@@ -1828,7 +1832,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="8">
         <v>84</v>
@@ -1863,7 +1867,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8">
         <v>29</v>
@@ -1898,7 +1902,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="8">
         <v>65</v>
@@ -1933,7 +1937,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1948,7 +1952,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1963,7 +1967,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1978,7 +1982,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1993,7 +1997,7 @@
     </row>
     <row r="19" spans="1:11" ht="14.5" customHeight="1">
       <c r="B19" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -2043,7 +2047,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="G24" s="41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
@@ -2086,24 +2090,24 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28"/>
       <c r="B3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -2115,7 +2119,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>12</v>
@@ -2127,7 +2131,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5">
         <v>16</v>
@@ -2139,7 +2143,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5">
         <v>65</v>
@@ -2151,7 +2155,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5">
         <v>440</v>
@@ -2163,7 +2167,7 @@
     </row>
     <row r="10" spans="1:7" ht="21.5" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -2201,7 +2205,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -2238,12 +2242,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2263,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>0</v>
@@ -2298,13 +2302,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2327,16 +2331,16 @@
         <v>100000</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2359,21 +2363,21 @@
         <v>1000</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>10</v>
-      </c>
       <c r="I9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -2419,7 +2423,7 @@
     </row>
     <row r="17" spans="5:9">
       <c r="E17" s="41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -2459,24 +2463,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2685,7 +2689,7 @@
     </row>
     <row r="16" spans="1:5" ht="44" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2694,7 +2698,7 @@
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -2724,7 +2728,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -2750,7 +2754,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB49304-6282-4EED-8C06-3CC237B90219}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2758,30 +2762,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28"/>
       <c r="B3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>66</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="30">
         <v>7340</v>
@@ -2802,7 +2806,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="30">
         <v>3052</v>
@@ -2823,7 +2827,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="30">
         <v>4933</v>
@@ -2844,7 +2848,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="30">
         <v>2810</v>
@@ -2865,7 +2869,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="30">
         <v>2590</v>
@@ -2886,7 +2890,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="57" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
@@ -2910,26 +2914,34 @@
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:F12"/>
-    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="A10:F13"/>
+    <mergeCell ref="B15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2948,17 +2960,17 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.5" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -3021,67 +3033,67 @@
     <row r="8" spans="1:13" ht="15" thickBot="1"/>
     <row r="9" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="A9" s="64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>138</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>142</v>
       </c>
       <c r="H9" s="62"/>
       <c r="I9" s="63"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="E11" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="F11" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="I11" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="J11" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="K11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="L11" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="M11" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="30">
         <v>1203680</v>
@@ -3122,7 +3134,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="30">
         <v>25400</v>
@@ -3163,7 +3175,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="30">
         <v>29890</v>
@@ -3204,7 +3216,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="30">
         <v>39900</v>
@@ -3245,7 +3257,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="30">
         <v>8050</v>
@@ -3286,7 +3298,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="30">
         <v>33150</v>
@@ -3327,7 +3339,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="30">
         <v>18540</v>
@@ -3368,7 +3380,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="30">
         <v>11320</v>
@@ -3409,7 +3421,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="30">
         <v>20380</v>
@@ -3450,7 +3462,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="30">
         <v>26230</v>
@@ -3491,7 +3503,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="30">
         <v>13290</v>
@@ -3532,7 +3544,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="30">
         <v>328360</v>
@@ -3573,7 +3585,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="30">
         <v>2105750</v>
@@ -3614,7 +3626,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="30">
         <v>205430</v>
@@ -3655,7 +3667,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="30">
         <v>106100</v>
@@ -3696,7 +3708,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="30">
         <v>16510</v>
@@ -3737,7 +3749,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="30">
         <v>69840</v>
@@ -3778,7 +3790,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="30">
         <v>7160</v>
@@ -3819,7 +3831,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="30">
         <v>150280</v>
@@ -3860,7 +3872,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="30">
         <v>247730</v>
@@ -3901,7 +3913,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="30">
         <v>143290</v>
@@ -3942,7 +3954,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="30">
         <v>152150</v>
@@ -3983,7 +3995,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B34" s="30">
         <v>249230</v>
@@ -4024,7 +4036,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="30">
         <v>21060</v>
@@ -4065,7 +4077,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36" s="30">
         <v>27200</v>
@@ -4106,7 +4118,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B37" s="30">
         <v>737800</v>
@@ -4147,7 +4159,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="30">
         <v>1411170</v>
@@ -4188,7 +4200,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="30">
         <v>106400</v>
@@ -4229,7 +4241,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="30">
         <v>28490</v>
@@ -4270,7 +4282,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" s="30">
         <v>26220</v>
@@ -4311,7 +4323,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="30">
         <v>14630</v>
@@ -4352,7 +4364,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="30">
         <v>5880</v>
@@ -4393,7 +4405,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" s="30">
         <v>25880</v>
@@ -4434,7 +4446,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" s="30">
         <v>69640</v>
@@ -4475,7 +4487,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="30">
         <v>10360</v>
@@ -4516,7 +4528,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="30">
         <v>7010</v>
@@ -4557,7 +4569,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="30">
         <v>35810</v>
@@ -4598,7 +4610,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B49" s="30">
         <v>16640</v>
@@ -4639,7 +4651,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B50" s="30">
         <v>4270</v>
@@ -4680,7 +4692,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51" s="30">
         <v>408680</v>
@@ -4721,7 +4733,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52" s="30">
         <v>37430</v>
@@ -4762,7 +4774,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" s="30">
         <v>68250</v>
@@ -4803,7 +4815,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="30">
         <v>71930</v>
@@ -4844,7 +4856,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="30">
         <v>141780</v>
@@ -4885,7 +4897,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="30">
         <v>33990</v>
@@ -4926,7 +4938,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" s="30">
         <v>77170</v>
@@ -4967,7 +4979,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="30">
         <v>609410</v>
@@ -5016,4 +5028,66 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021FA934-0CEF-436C-AD7E-08BAE8A4791A}">
+  <dimension ref="A2:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>